--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Варианты</t>
   </si>
@@ -84,28 +84,16 @@
     <t xml:space="preserve">Бердюгин Александр </t>
   </si>
   <si>
-    <t xml:space="preserve">Гунько Наталия </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Киселев Андрей </t>
-  </si>
-  <si>
     <t xml:space="preserve">Лыкова Юлия </t>
   </si>
   <si>
     <t xml:space="preserve">Пак Артем </t>
   </si>
   <si>
-    <t xml:space="preserve">Позднякова Ирина </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ромахин Александр </t>
   </si>
   <si>
     <t xml:space="preserve">Сонин Андрей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Титоренко Дарья </t>
   </si>
 </sst>
 </file>
@@ -417,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,41 +485,10 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,33 +513,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -890,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,18 +871,19 @@
     <col min="2" max="2" width="10" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.28515625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="28" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="39" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.28515625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="36.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="14.28515625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="35.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.28515625" style="11" customWidth="1"/>
-    <col min="24" max="24" width="38" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="28" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="39" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="13" customWidth="1"/>
+    <col min="13" max="14" width="14.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="36.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.28515625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="35.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.28515625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="38" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.28515625" style="11" customWidth="1"/>
     <col min="25" max="25" width="14.42578125" style="11" customWidth="1"/>
     <col min="26" max="26" width="29.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.7109375" style="11"/>
@@ -927,13 +894,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="32">
         <v>42982</v>
       </c>
       <c r="D1" s="15">
@@ -948,56 +915,56 @@
       <c r="G1" s="27">
         <v>43003</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="27">
         <v>43010</v>
       </c>
-      <c r="I1" s="27">
+      <c r="J1" s="27">
         <v>43017</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="22">
+      <c r="K1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="22">
         <v>43024</v>
       </c>
-      <c r="L1" s="22">
+      <c r="M1" s="22">
         <v>43031</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>3</v>
       </c>
       <c r="N1" s="22">
         <v>43038</v>
       </c>
-      <c r="O1" s="22">
+      <c r="O1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="22">
         <v>43045</v>
       </c>
-      <c r="P1" s="22">
+      <c r="Q1" s="22">
         <v>43052</v>
       </c>
-      <c r="Q1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="22">
+      <c r="R1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="22">
         <v>43059</v>
       </c>
-      <c r="S1" s="22">
+      <c r="T1" s="22">
         <v>43066</v>
       </c>
-      <c r="T1" s="22">
+      <c r="U1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="22">
         <v>43073</v>
       </c>
-      <c r="U1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="22">
+      <c r="W1" s="22">
         <v>43080</v>
       </c>
-      <c r="W1" s="22">
+      <c r="X1" s="22">
         <v>43087</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>6</v>
       </c>
       <c r="Y1" s="22">
         <v>43094</v>
@@ -1025,8 +992,10 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="33">
+        <v>1</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1049,16 +1018,16 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="50"/>
+      <c r="Z2" s="39"/>
       <c r="AA2" s="7">
-        <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>0</v>
+        <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
+        <v>1</v>
       </c>
       <c r="AB2" s="7">
         <v>85</v>
       </c>
       <c r="AC2" s="5" t="str">
-        <f t="shared" ref="AC2:AC4" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD2" s="26" t="str">
@@ -1074,8 +1043,10 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="34">
+        <v>1</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1098,10 +1069,10 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="50"/>
+      <c r="Z3" s="39"/>
       <c r="AA3" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="7">
         <v>85</v>
@@ -1111,7 +1082,7 @@
         <v>Не удовл</v>
       </c>
       <c r="AD3" s="26" t="str">
-        <f t="shared" ref="AD3:AD11" si="2">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" ref="AD3:AD5" si="2">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
       <c r="AE3" s="5" t="str">
@@ -1123,8 +1094,10 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1147,7 +1120,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="50"/>
+      <c r="Z4" s="39"/>
       <c r="AA4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1156,7 +1129,7 @@
         <v>85</v>
       </c>
       <c r="AC4" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AC4:AC5" si="3">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD4" s="26" t="str">
@@ -1164,7 +1137,7 @@
         <v>Не удовл</v>
       </c>
       <c r="AE4" s="5" t="str">
-        <f t="shared" ref="AE4:AE6" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1172,8 +1145,10 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34">
+        <v>1</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1196,24 +1171,24 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="50"/>
+      <c r="Z5" s="39"/>
       <c r="AA5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="7">
         <v>85</v>
       </c>
       <c r="AC5" s="5" t="str">
-        <f>IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AD5" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE5" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="AE5" s="26" t="str">
+        <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1221,8 +1196,10 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1245,24 +1222,24 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="50"/>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="7">
         <v>85</v>
       </c>
       <c r="AC6" s="5" t="str">
-        <f t="shared" ref="AC6:AC11" si="4">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC6:AC7" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD6" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AD6:AD7" si="6">IF(AA6&gt;=98,"А+",IF(AA6&gt;=93,"А",IF(AA6&gt;=90,"А-",IF(AA6&gt;=87,"B+",IF(AA6&gt;=83,"B",IF(AA6&gt;=80,"B-",IF(AA6&gt;=77,"C+",IF(AA6&gt;=73,"B",IF(AA6&gt;=70,"C-",IF(AA6&gt;=67,"D+",IF(AA6&gt;=63,"D",IF(AA6&gt;=60,"D-",IF(AA6&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE6" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="AE6" s="26" t="str">
+        <f t="shared" ref="AE6:AE7" si="7" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1270,8 +1247,10 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1294,313 +1273,237 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="50"/>
+      <c r="Z7" s="39"/>
       <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
       </c>
       <c r="AC7" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE7" s="26" t="str">
-        <f xml:space="preserve"> IF(AA7&gt;=AB7,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>85</v>
-      </c>
-      <c r="AC8" s="5" t="str">
-        <f t="shared" ref="AC8:AC10" si="5">IF(AA8&gt;=87,"отл",IF(AA8&gt;=73,"хорошо",IF(AA8&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD8" s="26" t="str">
-        <f t="shared" ref="AD8:AD10" si="6">IF(AA8&gt;=98,"А+",IF(AA8&gt;=93,"А",IF(AA8&gt;=90,"А-",IF(AA8&gt;=87,"B+",IF(AA8&gt;=83,"B",IF(AA8&gt;=80,"B-",IF(AA8&gt;=77,"C+",IF(AA8&gt;=73,"B",IF(AA8&gt;=70,"C-",IF(AA8&gt;=67,"D+",IF(AA8&gt;=63,"D",IF(AA8&gt;=60,"D-",IF(AA8&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE8" s="26" t="str">
-        <f t="shared" ref="AE8:AE10" si="7" xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>85</v>
-      </c>
-      <c r="AC9" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD9" s="26" t="str">
+      <c r="AD7" s="26" t="str">
         <f t="shared" si="6"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE9" s="26" t="str">
+      <c r="AE7" s="26" t="str">
         <f t="shared" si="7"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>85</v>
-      </c>
-      <c r="AC10" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD10" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE10" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>85</v>
-      </c>
-      <c r="AC11" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD11" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE11" s="5" t="str">
-        <f t="shared" ref="AE11" si="8" xml:space="preserve"> IF(AA11&gt;=AB11,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="35" t="s">
+    <row r="8" spans="1:31" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="34" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="39" t="s">
+      <c r="J8" s="44"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="39" t="s">
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="29" t="s">
+      <c r="Q8" s="41"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="32" t="s">
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -1627,10 +1530,10 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -1657,10 +1560,10 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -1687,10 +1590,10 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -1717,10 +1620,10 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -1747,10 +1650,10 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -1777,10 +1680,10 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -1807,10 +1710,10 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -1828,146 +1731,22 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-    </row>
   </sheetData>
-  <sheetProtection sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
-  <mergeCells count="6">
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
+  <mergeCells count="7">
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:R8"/>
   </mergeCells>
-  <conditionalFormatting sqref="X2:Z11 C2:V11">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:Z7">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2018\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -514,6 +519,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,12 +547,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +652,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -862,7 +867,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,11 +997,15 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
       <c r="C2" s="33">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1043,11 +1052,15 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="37">
+        <v>2</v>
+      </c>
       <c r="C3" s="34">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1072,7 +1085,7 @@
       <c r="Z3" s="39"/>
       <c r="AA3" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="7">
         <v>85</v>
@@ -1094,11 +1107,15 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="37">
+        <v>3</v>
+      </c>
       <c r="C4" s="34">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1145,11 +1162,15 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="37">
+        <v>4</v>
+      </c>
       <c r="C5" s="34">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1174,7 +1195,7 @@
       <c r="Z5" s="39"/>
       <c r="AA5" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="7">
         <v>85</v>
@@ -1196,11 +1217,15 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="37">
+        <v>5</v>
+      </c>
       <c r="C6" s="34">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1225,7 +1250,7 @@
       <c r="Z6" s="39"/>
       <c r="AA6" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="7">
         <v>85</v>
@@ -1247,11 +1272,15 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37">
+        <v>6</v>
+      </c>
       <c r="C7" s="34">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1276,7 +1305,7 @@
       <c r="Z7" s="39"/>
       <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
@@ -1297,44 +1326,44 @@
     <row r="8" spans="1:31" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="38"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="43" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="40" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="40" t="s">
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="40" t="s">
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="44"/>
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
       <c r="X8" s="29"/>
-      <c r="Y8" s="48" t="s">
+      <c r="Y8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="49"/>
+      <c r="Z8" s="41"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="8"/>
@@ -1732,7 +1761,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3XnbqBh7j6RnvaXtcsFtm8a9tnVy5Xq4yIEJGDaWBFs1h8cBjpCbKpg8KXe7YvtfR6EwE+VXzUb1WQ2RCdOLqA==" saltValue="1OA7WIH3r4xUVMCbmbPOKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -867,7 +867,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,8 +1006,12 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1030,7 +1034,7 @@
       <c r="Z2" s="39"/>
       <c r="AA2" s="7">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="7">
         <v>85</v>
@@ -1061,8 +1065,12 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1085,7 +1093,7 @@
       <c r="Z3" s="39"/>
       <c r="AA3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="7">
         <v>85</v>
@@ -1116,8 +1124,12 @@
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1140,7 +1152,7 @@
       <c r="Z4" s="39"/>
       <c r="AA4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB4" s="7">
         <v>85</v>
@@ -1171,8 +1183,12 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1195,7 +1211,7 @@
       <c r="Z5" s="39"/>
       <c r="AA5" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB5" s="7">
         <v>85</v>
@@ -1226,8 +1242,12 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1250,7 +1270,7 @@
       <c r="Z6" s="39"/>
       <c r="AA6" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB6" s="7">
         <v>85</v>
@@ -1281,8 +1301,12 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1305,7 +1329,7 @@
       <c r="Z7" s="39"/>
       <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
@@ -1761,7 +1785,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3XnbqBh7j6RnvaXtcsFtm8a9tnVy5Xq4yIEJGDaWBFs1h8cBjpCbKpg8KXe7YvtfR6EwE+VXzUb1WQ2RCdOLqA==" saltValue="1OA7WIH3r4xUVMCbmbPOKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IK0grAhNYzlQPySS6NeBc8Yly2JLYe6wwJSW1SL2un+13AFNN84JgByxx3nb3gK+3Byxb6eF7mm70ov/86o1kw==" saltValue="dakkrnnIQtsATNS6hXELSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -864,10 +864,10 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1012,16 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1034,7 +1040,7 @@
       <c r="Z2" s="39"/>
       <c r="AA2" s="7">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="7">
         <v>85</v>
@@ -1071,10 +1077,16 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1093,7 +1105,7 @@
       <c r="Z3" s="39"/>
       <c r="AA3" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AB3" s="7">
         <v>85</v>
@@ -1130,10 +1142,16 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1152,7 +1170,7 @@
       <c r="Z4" s="39"/>
       <c r="AA4" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB4" s="7">
         <v>85</v>
@@ -1189,10 +1207,16 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8</v>
+      </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1211,7 +1235,7 @@
       <c r="Z5" s="39"/>
       <c r="AA5" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="7">
         <v>85</v>
@@ -1248,8 +1272,12 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1270,7 +1298,7 @@
       <c r="Z6" s="39"/>
       <c r="AA6" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AB6" s="7">
         <v>85</v>
@@ -1307,8 +1335,12 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1329,7 +1361,7 @@
       <c r="Z7" s="39"/>
       <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
@@ -1785,7 +1817,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IK0grAhNYzlQPySS6NeBc8Yly2JLYe6wwJSW1SL2un+13AFNN84JgByxx3nb3gK+3Byxb6eF7mm70ov/86o1kw==" saltValue="dakkrnnIQtsATNS6hXELSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zJD56bd0SoZ/9BjJFMxYFwlWSRiDzbEKVuq8+y3LlFc006zgUWJ7iUynnnPduknOraU0aEhWDklB55BgE4dIow==" saltValue="yJ3MZxNmZsoIDrOymqToJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2018\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -490,7 +485,6 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,6 +541,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -617,7 +614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,7 +649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,10 +861,10 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,13 +879,12 @@
     <col min="10" max="10" width="14.28515625" style="13" customWidth="1"/>
     <col min="11" max="11" width="39" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" style="13" customWidth="1"/>
-    <col min="13" max="14" width="14.28515625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.28515625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="35.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.28515625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="38" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="14.28515625" style="11" customWidth="1"/>
+    <col min="13" max="19" width="14.28515625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="36.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="35.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="38" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.42578125" style="11" customWidth="1"/>
     <col min="26" max="26" width="29.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.7109375" style="11"/>
@@ -899,13 +895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32">
+      <c r="C1" s="31">
         <v>42982</v>
       </c>
       <c r="D1" s="15">
@@ -941,35 +937,35 @@
       <c r="N1" s="22">
         <v>43038</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22">
+        <v>43045</v>
+      </c>
+      <c r="P1" s="22">
+        <v>43052</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>43059</v>
+      </c>
+      <c r="R1" s="22">
+        <v>43066</v>
+      </c>
+      <c r="S1" s="22">
+        <v>43073</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="22">
-        <v>43045</v>
-      </c>
-      <c r="Q1" s="22">
-        <v>43052</v>
-      </c>
-      <c r="R1" s="23" t="s">
+      <c r="U1" s="22">
+        <v>43080</v>
+      </c>
+      <c r="V1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="22">
-        <v>43059</v>
-      </c>
-      <c r="T1" s="22">
-        <v>43066</v>
-      </c>
-      <c r="U1" s="23" t="s">
+      <c r="W1" s="22">
+        <v>43087</v>
+      </c>
+      <c r="X1" s="23" t="s">
         <v>6</v>
-      </c>
-      <c r="V1" s="22">
-        <v>43073</v>
-      </c>
-      <c r="W1" s="22">
-        <v>43080</v>
-      </c>
-      <c r="X1" s="22">
-        <v>43087</v>
       </c>
       <c r="Y1" s="22">
         <v>43094</v>
@@ -997,10 +993,10 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="36">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="B2" s="35">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -1018,15 +1014,23 @@
       <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1037,16 +1041,16 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="39"/>
+      <c r="Z2" s="38"/>
       <c r="AA2" s="7">
-        <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>15</v>
+        <f>SUM(C2:Z2)</f>
+        <v>18</v>
       </c>
       <c r="AB2" s="7">
         <v>85</v>
       </c>
       <c r="AC2" s="5" t="str">
-        <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC2:AC3" si="0">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD2" s="26" t="str">
@@ -1062,10 +1066,10 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>2</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>1</v>
       </c>
       <c r="D3" s="4">
@@ -1083,18 +1087,28 @@
       <c r="H3" s="4">
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
       <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4">
+        <v>1</v>
+      </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -1102,20 +1116,20 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="39"/>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(C3:Z3)</f>
+        <v>21</v>
       </c>
       <c r="AB3" s="7">
         <v>85</v>
       </c>
       <c r="AC3" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Не удовл</v>
       </c>
       <c r="AD3" s="26" t="str">
-        <f t="shared" ref="AD3:AD5" si="2">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" ref="AD3:AD5" si="1">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
       <c r="AE3" s="5" t="str">
@@ -1127,10 +1141,10 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>3</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="4">
@@ -1146,20 +1160,30 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -1167,24 +1191,24 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="39"/>
+      <c r="Z4" s="38"/>
       <c r="AA4" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(C4:Z4)</f>
+        <v>18</v>
       </c>
       <c r="AB4" s="7">
         <v>85</v>
       </c>
       <c r="AC4" s="5" t="str">
-        <f t="shared" ref="AC4:AC5" si="3">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC4:AC5" si="2">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD4" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
       <c r="AE4" s="5" t="str">
-        <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE4" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1192,10 +1216,10 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>4</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>1</v>
       </c>
       <c r="D5" s="4">
@@ -1213,18 +1237,32 @@
       <c r="H5" s="4">
         <v>8</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -1232,20 +1270,20 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="39"/>
+      <c r="Z5" s="38"/>
       <c r="AA5" s="7">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(C5:Z5)</f>
+        <v>34</v>
       </c>
       <c r="AB5" s="7">
         <v>85</v>
       </c>
       <c r="AC5" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
       <c r="AD5" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
       <c r="AE5" s="26" t="str">
@@ -1257,10 +1295,10 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>5</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>1</v>
       </c>
       <c r="D6" s="4">
@@ -1278,16 +1316,28 @@
       <c r="H6" s="4">
         <v>8</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1295,24 +1345,24 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="39"/>
+      <c r="Z6" s="38"/>
       <c r="AA6" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>SUM(C6:Z6)</f>
+        <v>23</v>
       </c>
       <c r="AB6" s="7">
         <v>85</v>
       </c>
       <c r="AC6" s="5" t="str">
-        <f t="shared" ref="AC6:AC7" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC6:AC7" si="4">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD6" s="26" t="str">
-        <f t="shared" ref="AD6:AD7" si="6">IF(AA6&gt;=98,"А+",IF(AA6&gt;=93,"А",IF(AA6&gt;=90,"А-",IF(AA6&gt;=87,"B+",IF(AA6&gt;=83,"B",IF(AA6&gt;=80,"B-",IF(AA6&gt;=77,"C+",IF(AA6&gt;=73,"B",IF(AA6&gt;=70,"C-",IF(AA6&gt;=67,"D+",IF(AA6&gt;=63,"D",IF(AA6&gt;=60,"D-",IF(AA6&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" ref="AD6:AD7" si="5">IF(AA6&gt;=98,"А+",IF(AA6&gt;=93,"А",IF(AA6&gt;=90,"А-",IF(AA6&gt;=87,"B+",IF(AA6&gt;=83,"B",IF(AA6&gt;=80,"B-",IF(AA6&gt;=77,"C+",IF(AA6&gt;=73,"B",IF(AA6&gt;=70,"C-",IF(AA6&gt;=67,"D+",IF(AA6&gt;=63,"D",IF(AA6&gt;=60,"D-",IF(AA6&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
       <c r="AE6" s="26" t="str">
-        <f t="shared" ref="AE6:AE7" si="7" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1320,10 +1370,10 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>6</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>1</v>
       </c>
       <c r="D7" s="4">
@@ -1339,15 +1389,23 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1358,68 +1416,68 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="39"/>
+      <c r="Z7" s="38"/>
       <c r="AA7" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>SUM(C7:Z7)</f>
+        <v>18</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
       </c>
       <c r="AC7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD7" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD7" s="26" t="str">
+      <c r="AE7" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE7" s="26" t="str">
-        <f t="shared" si="7"/>
         <v>Не зачет</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="45" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="42" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="42" t="s">
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="42" t="s">
+      <c r="V8" s="43"/>
+      <c r="W8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="40" t="s">
+      <c r="X8" s="49"/>
+      <c r="Y8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="41"/>
+      <c r="Z8" s="40"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="8"/>
@@ -1817,18 +1875,18 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zJD56bd0SoZ/9BjJFMxYFwlWSRiDzbEKVuq8+y3LlFc006zgUWJ7iUynnnPduknOraU0aEhWDklB55BgE4dIow==" saltValue="yJ3MZxNmZsoIDrOymqToJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="S8:U8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U8:V8"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:Z7">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2018\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -519,6 +524,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,21 +546,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,7 +619,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,10 +866,10 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,8 +1039,12 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <v>11</v>
+      </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
@@ -1043,14 +1052,14 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="7">
-        <f>SUM(C2:Z2)</f>
-        <v>18</v>
+        <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
+        <v>30</v>
       </c>
       <c r="AB2" s="7">
         <v>85</v>
       </c>
       <c r="AC2" s="5" t="str">
-        <f t="shared" ref="AC2:AC3" si="0">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD2" s="26" t="str">
@@ -1109,8 +1118,12 @@
       <c r="R3" s="4">
         <v>1</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <v>11</v>
+      </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -1118,18 +1131,18 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="38"/>
       <c r="AA3" s="7">
-        <f>SUM(C3:Z3)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="AB3" s="7">
         <v>85</v>
       </c>
       <c r="AC3" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
       <c r="AD3" s="26" t="str">
-        <f t="shared" ref="AD3:AD5" si="1">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" ref="AD3:AD5" si="2">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
       <c r="AE3" s="5" t="str">
@@ -1184,7 +1197,9 @@
       <c r="R4" s="4">
         <v>1</v>
       </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -1193,22 +1208,22 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="7">
-        <f>SUM(C4:Z4)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AB4" s="7">
         <v>85</v>
       </c>
       <c r="AC4" s="5" t="str">
-        <f t="shared" ref="AC4:AC5" si="2">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC4:AC5" si="3">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD4" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
       <c r="AE4" s="5" t="str">
-        <f t="shared" ref="AE4" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1263,8 +1278,12 @@
       <c r="R5" s="4">
         <v>1</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>11</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -1272,18 +1291,18 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="38"/>
       <c r="AA5" s="7">
-        <f>SUM(C5:Z5)</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="AB5" s="7">
         <v>85</v>
       </c>
       <c r="AC5" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD5" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD5" s="26" t="str">
-        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
       <c r="AE5" s="26" t="str">
@@ -1320,7 +1339,9 @@
         <v>1</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>10</v>
+      </c>
       <c r="L6" s="4">
         <v>1</v>
       </c>
@@ -1338,7 +1359,9 @@
       <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -1347,22 +1370,22 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="38"/>
       <c r="AA6" s="7">
-        <f>SUM(C6:Z6)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="AB6" s="7">
         <v>85</v>
       </c>
       <c r="AC6" s="5" t="str">
-        <f t="shared" ref="AC6:AC7" si="4">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC6:AC7" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD6" s="26" t="str">
-        <f t="shared" ref="AD6:AD7" si="5">IF(AA6&gt;=98,"А+",IF(AA6&gt;=93,"А",IF(AA6&gt;=90,"А-",IF(AA6&gt;=87,"B+",IF(AA6&gt;=83,"B",IF(AA6&gt;=80,"B-",IF(AA6&gt;=77,"C+",IF(AA6&gt;=73,"B",IF(AA6&gt;=70,"C-",IF(AA6&gt;=67,"D+",IF(AA6&gt;=63,"D",IF(AA6&gt;=60,"D-",IF(AA6&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" ref="AD6:AD7" si="6">IF(AA6&gt;=98,"А+",IF(AA6&gt;=93,"А",IF(AA6&gt;=90,"А-",IF(AA6&gt;=87,"B+",IF(AA6&gt;=83,"B",IF(AA6&gt;=80,"B-",IF(AA6&gt;=77,"C+",IF(AA6&gt;=73,"B",IF(AA6&gt;=70,"C-",IF(AA6&gt;=67,"D+",IF(AA6&gt;=63,"D",IF(AA6&gt;=60,"D-",IF(AA6&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
       <c r="AE6" s="26" t="str">
-        <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE6:AE7" si="7" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1409,7 +1432,9 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -1418,59 +1443,59 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="7">
-        <f>SUM(C7:Z7)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
       </c>
       <c r="AC7" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD7" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
+      <c r="AD7" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Не удовл</v>
+      </c>
       <c r="AE7" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Не зачет</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="44" t="s">
+      <c r="G8" s="42"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="41" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="41" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="43"/>
-      <c r="W8" s="41" t="s">
+      <c r="V8" s="48"/>
+      <c r="W8" s="46" t="s">
         <v>14</v>
       </c>
       <c r="X8" s="49"/>
@@ -1875,7 +1900,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OTpRjYF3z5O2MYfVS8TgJe1RdCc8CgcDS4PeVdVadf2/hYyceD89oMcCpW0ibH+XC4W7zz+opUJPxcnR+nwDDQ==" saltValue="Xebdl1LGX+N8bYjrEuMolg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2018\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -619,7 +614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,7 +864,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1357,9 @@
       <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="4"/>
+      <c r="T6" s="4">
+        <v>11</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -1371,7 +1368,7 @@
       <c r="Z6" s="38"/>
       <c r="AA6" s="7">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AB6" s="7">
         <v>85</v>
@@ -1900,7 +1897,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OTpRjYF3z5O2MYfVS8TgJe1RdCc8CgcDS4PeVdVadf2/hYyceD89oMcCpW0ibH+XC4W7zz+opUJPxcnR+nwDDQ==" saltValue="Xebdl1LGX+N8bYjrEuMolg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2018\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -614,7 +619,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,10 +866,10 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -866,10 +866,10 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,21 +1050,23 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="38"/>
+      <c r="Z2" s="38">
+        <v>24</v>
+      </c>
       <c r="AA2" s="7">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="7">
         <v>85</v>
       </c>
       <c r="AC2" s="5" t="str">
         <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD2" s="26" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"B",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>E</v>
       </c>
       <c r="AE2" s="26" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1102,7 +1104,9 @@
       <c r="J3" s="4">
         <v>1</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4">
         <v>1</v>
@@ -1129,21 +1133,23 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="38"/>
+      <c r="Z3" s="38">
+        <v>24</v>
+      </c>
       <c r="AA3" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="AB3" s="7">
         <v>85</v>
       </c>
       <c r="AC3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD3" s="26" t="str">
         <f t="shared" ref="AD3:AD5" si="2">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>D+</v>
       </c>
       <c r="AE3" s="5" t="str">
         <f xml:space="preserve"> IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
@@ -1181,7 +1187,9 @@
       <c r="J4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4">
+        <v>9</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4">
         <v>0</v>
@@ -1200,27 +1208,31 @@
       <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="T4" s="4"/>
+      <c r="T4" s="4">
+        <v>9</v>
+      </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="38"/>
+      <c r="Z4" s="38">
+        <v>24</v>
+      </c>
       <c r="AA4" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="AB4" s="7">
         <v>85</v>
       </c>
       <c r="AC4" s="5" t="str">
         <f t="shared" ref="AC4:AC5" si="3">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD4" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Не удовл</v>
+        <v>D-</v>
       </c>
       <c r="AE4" s="5" t="str">
         <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
@@ -1282,28 +1294,30 @@
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="38"/>
+      <c r="Z5" s="38">
+        <v>24</v>
+      </c>
       <c r="AA5" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="AB5" s="7">
         <v>85</v>
       </c>
       <c r="AC5" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD5" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Не удовл</v>
+        <v>C-</v>
       </c>
       <c r="AE5" s="26" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
@@ -1370,21 +1384,23 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="38"/>
+      <c r="Z6" s="38">
+        <v>24</v>
+      </c>
       <c r="AA6" s="7">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="7">
         <v>85</v>
       </c>
       <c r="AC6" s="5" t="str">
         <f t="shared" ref="AC6:AC7" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD6" s="26" t="str">
         <f t="shared" ref="AD6:AD7" si="6">IF(AA6&gt;=98,"А+",IF(AA6&gt;=93,"А",IF(AA6&gt;=90,"А-",IF(AA6&gt;=87,"B+",IF(AA6&gt;=83,"B",IF(AA6&gt;=80,"B-",IF(AA6&gt;=77,"C+",IF(AA6&gt;=73,"B",IF(AA6&gt;=70,"C-",IF(AA6&gt;=67,"D+",IF(AA6&gt;=63,"D",IF(AA6&gt;=60,"D-",IF(AA6&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>D+</v>
       </c>
       <c r="AE6" s="26" t="str">
         <f t="shared" ref="AE6:AE7" si="7" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
@@ -1437,27 +1453,31 @@
       <c r="S7" s="4">
         <v>1</v>
       </c>
-      <c r="T7" s="4"/>
+      <c r="T7" s="4">
+        <v>9</v>
+      </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="38"/>
+      <c r="Z7" s="38">
+        <v>24</v>
+      </c>
       <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
       </c>
       <c r="AC7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD7" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>Не удовл</v>
+        <v>E</v>
       </c>
       <c r="AE7" s="26" t="str">
         <f t="shared" si="7"/>
@@ -1902,7 +1922,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AbOI+WeICAsQpptM4fO9uu+HM15rxazvUdsgfSPM9sOeUI26Xc5GucZjSr+50I4lZIDdM7tzWYN+IxlGxpP9WQ==" saltValue="Jycqx2oBolaSXeDS3yNBPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2018\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -619,7 +614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,7 +864,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,27 +1041,31 @@
         <v>11</v>
       </c>
       <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="V2" s="4">
+        <v>11</v>
+      </c>
       <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="X2" s="4">
+        <v>9</v>
+      </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="38">
         <v>24</v>
       </c>
       <c r="AA2" s="7">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="AB2" s="7">
         <v>85</v>
       </c>
       <c r="AC2" s="5" t="str">
         <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD2" s="26" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"B",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="AE2" s="26" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1129,31 +1128,35 @@
         <v>11</v>
       </c>
       <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="V3" s="4">
+        <v>11</v>
+      </c>
       <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="X3" s="4">
+        <v>9</v>
+      </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="38">
         <v>24</v>
       </c>
       <c r="AA3" s="7">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="AB3" s="7">
         <v>85</v>
       </c>
       <c r="AC3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>удовл</v>
+        <v>отл</v>
       </c>
       <c r="AD3" s="26" t="str">
         <f t="shared" ref="AD3:AD5" si="2">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>D+</v>
+        <v>B+</v>
       </c>
       <c r="AE3" s="5" t="str">
         <f xml:space="preserve"> IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1297,31 +1300,35 @@
         <v>12</v>
       </c>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="V5" s="4">
+        <v>10</v>
+      </c>
       <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="X5" s="4">
+        <v>10</v>
+      </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="38">
         <v>24</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AB5" s="7">
         <v>85</v>
       </c>
       <c r="AC5" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>удовл</v>
+        <v>отл</v>
       </c>
       <c r="AD5" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>C-</v>
+        <v>А-</v>
       </c>
       <c r="AE5" s="26" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1457,27 +1464,31 @@
         <v>9</v>
       </c>
       <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="V7" s="4">
+        <v>11</v>
+      </c>
       <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="X7" s="4">
+        <v>10</v>
+      </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="38">
         <v>24</v>
       </c>
       <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
       </c>
       <c r="AC7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD7" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="AE7" s="26" t="str">
         <f t="shared" si="7"/>
@@ -1922,7 +1933,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AbOI+WeICAsQpptM4fO9uu+HM15rxazvUdsgfSPM9sOeUI26Xc5GucZjSr+50I4lZIDdM7tzWYN+IxlGxpP9WQ==" saltValue="Jycqx2oBolaSXeDS3yNBPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\NSTU\Проектирование систем\Student 2018\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -614,7 +619,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,7 +869,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4">
@@ -1477,18 +1482,18 @@
       </c>
       <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
       </c>
       <c r="AC7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>хорошо</v>
+        <v>удовл</v>
       </c>
       <c r="AD7" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v>C-</v>
       </c>
       <c r="AE7" s="26" t="str">
         <f t="shared" si="7"/>
@@ -1933,7 +1938,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2018.xlsx
+++ b/Баллы 2018.xlsx
@@ -866,10 +866,10 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1025,9 @@
       <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4">
+        <v>8</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4">
         <v>0</v>
@@ -1059,7 +1061,7 @@
       </c>
       <c r="AA2" s="7">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AB2" s="7">
         <v>85</v>
@@ -1070,7 +1072,7 @@
       </c>
       <c r="AD2" s="26" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"B",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>B</v>
+        <v>B-</v>
       </c>
       <c r="AE2" s="26" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1156,7 +1158,7 @@
         <v>отл</v>
       </c>
       <c r="AD3" s="26" t="str">
-        <f t="shared" ref="AD3:AD5" si="2">IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"B",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f>IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"C",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>B+</v>
       </c>
       <c r="AE3" s="5" t="str">
@@ -1220,30 +1222,34 @@
         <v>9</v>
       </c>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="V4" s="4">
+        <v>8</v>
+      </c>
       <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="X4" s="4">
+        <v>7</v>
+      </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="38">
         <v>24</v>
       </c>
       <c r="AA4" s="7">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AB4" s="7">
         <v>85</v>
       </c>
       <c r="AC4" s="5" t="str">
-        <f t="shared" ref="AC4:AC5" si="3">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
-        <v>удовл</v>
+        <f t="shared" ref="AC4:AC5" si="2">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
+        <v>хорошо</v>
       </c>
       <c r="AD4" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>D-</v>
+        <f>IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
+        <v>C</v>
       </c>
       <c r="AE4" s="5" t="str">
-        <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE4" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1324,11 +1330,11 @@
         <v>85</v>
       </c>
       <c r="AC5" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>отл</v>
       </c>
       <c r="AD5" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AD5:AD7" si="4">IF(AA5&gt;=98,"А+",IF(AA5&gt;=93,"А",IF(AA5&gt;=90,"А-",IF(AA5&gt;=87,"B+",IF(AA5&gt;=83,"B",IF(AA5&gt;=80,"B-",IF(AA5&gt;=77,"C+",IF(AA5&gt;=73,"C",IF(AA5&gt;=70,"C-",IF(AA5&gt;=67,"D+",IF(AA5&gt;=63,"D",IF(AA5&gt;=60,"D-",IF(AA5&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>А-</v>
       </c>
       <c r="AE5" s="26" t="str">
@@ -1411,11 +1417,11 @@
         <v>удовл</v>
       </c>
       <c r="AD6" s="26" t="str">
-        <f t="shared" ref="AD6:AD7" si="6">IF(AA6&gt;=98,"А+",IF(AA6&gt;=93,"А",IF(AA6&gt;=90,"А-",IF(AA6&gt;=87,"B+",IF(AA6&gt;=83,"B",IF(AA6&gt;=80,"B-",IF(AA6&gt;=77,"C+",IF(AA6&gt;=73,"B",IF(AA6&gt;=70,"C-",IF(AA6&gt;=67,"D+",IF(AA6&gt;=63,"D",IF(AA6&gt;=60,"D-",IF(AA6&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" si="4"/>
         <v>D+</v>
       </c>
       <c r="AE6" s="26" t="str">
-        <f t="shared" ref="AE6:AE7" si="7" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1448,7 +1454,9 @@
         <v>1</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>8</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
         <v>0</v>
@@ -1482,21 +1490,21 @@
       </c>
       <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AB7" s="7">
         <v>85</v>
       </c>
       <c r="AC7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD7" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>B-</v>
+      </c>
+      <c r="AE7" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>C-</v>
-      </c>
-      <c r="AE7" s="26" t="str">
-        <f t="shared" si="7"/>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1938,7 +1946,7 @@
       <c r="AB21" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j0QzuHyz99kJIEGj4A7m8nvDxPy/vf1BWKq6IpnX1+SCX4FZn9irY83ytCeHS5K3GQT4eUqdQztLbMPktQcEwQ==" saltValue="OdomcRz2T0hB1PPYdmSI9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>
